--- a/biology/Botanique/Orpin_des_rochers/Orpin_des_rochers.xlsx
+++ b/biology/Botanique/Orpin_des_rochers/Orpin_des_rochers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sedum rupestre
 L'Orpin des rochers, Orpin rupestre ou Orpin réfléchi (Sedum rupestre) est une espèce de plante de la famille des Crassulaceae.
@@ -514,15 +526,52 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuillage persistant en épi gris-vert. Couvre-sol.
 Inflorescence en panicules de fleurs étoilées, jaunes en juillet-août. 
 Exposition au soleil. Sol ordinaire, pauvre, même calcaire, sec à modérément humide.
 Rustique, au moins jusqu'à −15 °C.
 Multiplication facile par bouturage.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Orpin_des_rochers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orpin_des_rochers</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
 Période de floraison : juillet-septembre
 Inflorescence : cyme multipare
@@ -539,31 +588,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Orpin_des_rochers</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Orpin_des_rochers</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet orpin fait partie des sédums utilisés pour végétaliser les toitures végétales.
 </t>
